--- a/G10_Assignment1/G10_Acceptance.Ass.1.xlsx
+++ b/G10_Assignment1/G10_Acceptance.Ass.1.xlsx
@@ -5516,20 +5516,134 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5541,120 +5655,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5992,7 +5992,7 @@
   <dimension ref="A1:F434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338:C338"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6053,10 +6053,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="157"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
     </row>
@@ -6161,11 +6161,11 @@
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:6">
@@ -6175,12 +6175,12 @@
       <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="18.75">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
@@ -6281,12 +6281,12 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
@@ -6386,11 +6386,11 @@
       <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="201"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
     </row>
@@ -6399,12 +6399,12 @@
       <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
     </row>
@@ -6539,10 +6539,10 @@
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="157" t="s">
+      <c r="A55" s="189" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="157"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
@@ -6657,9 +6657,9 @@
       <c r="F65" s="36"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="166"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
+      <c r="A66" s="190"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
@@ -6673,12 +6673,12 @@
       <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="161" t="s">
+      <c r="A68" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
+      <c r="B68" s="188"/>
+      <c r="C68" s="188"/>
+      <c r="D68" s="188"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -6915,10 +6915,10 @@
       <c r="F84" s="36"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="157" t="s">
+      <c r="A85" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="157"/>
+      <c r="B85" s="189"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
@@ -7025,11 +7025,11 @@
       <c r="F94" s="36"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="166" t="s">
+      <c r="A95" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="167"/>
-      <c r="C95" s="167"/>
+      <c r="B95" s="191"/>
+      <c r="C95" s="191"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -7043,12 +7043,12 @@
       <c r="F96" s="36"/>
     </row>
     <row r="97" spans="1:6" ht="18.75">
-      <c r="A97" s="161" t="s">
+      <c r="A97" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="161"/>
-      <c r="C97" s="161"/>
-      <c r="D97" s="161"/>
+      <c r="B97" s="188"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
     </row>
@@ -7139,10 +7139,10 @@
       <c r="F103" s="36"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="157" t="s">
+      <c r="A104" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="157"/>
+      <c r="B104" s="189"/>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="50"/>
@@ -7263,11 +7263,11 @@
       <c r="F114" s="36"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A115" s="168" t="s">
+      <c r="A115" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="169"/>
-      <c r="C115" s="170"/>
+      <c r="B115" s="193"/>
+      <c r="C115" s="194"/>
       <c r="D115" s="64"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
@@ -7281,12 +7281,12 @@
       <c r="F116" s="36"/>
     </row>
     <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="171" t="s">
+      <c r="A117" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="171"/>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
+      <c r="B117" s="195"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
     </row>
@@ -7361,10 +7361,10 @@
       <c r="F122" s="36"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="157" t="s">
+      <c r="A123" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="157"/>
+      <c r="B123" s="189"/>
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
@@ -7525,11 +7525,11 @@
       <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A135" s="172" t="s">
+      <c r="A135" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="173"/>
-      <c r="C135" s="174"/>
+      <c r="B135" s="197"/>
+      <c r="C135" s="198"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
@@ -7543,12 +7543,12 @@
       <c r="F136" s="36"/>
     </row>
     <row r="137" spans="1:6" ht="18.75">
-      <c r="A137" s="161" t="s">
+      <c r="A137" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="161"/>
-      <c r="C137" s="161"/>
-      <c r="D137" s="161"/>
+      <c r="B137" s="188"/>
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
     </row>
@@ -7615,10 +7615,10 @@
       <c r="F141" s="36"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="175" t="s">
+      <c r="A144" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="175"/>
+      <c r="B144" s="176"/>
       <c r="C144" s="76"/>
       <c r="D144" s="76"/>
     </row>
@@ -7713,11 +7713,11 @@
       <c r="D153" s="89"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A154" s="176" t="s">
+      <c r="A154" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="177"/>
-      <c r="C154" s="178"/>
+      <c r="B154" s="183"/>
+      <c r="C154" s="184"/>
       <c r="D154" s="90"/>
     </row>
     <row r="155" spans="1:4">
@@ -7727,12 +7727,12 @@
       <c r="D155" s="76"/>
     </row>
     <row r="156" spans="1:4" ht="18.75">
-      <c r="A156" s="179" t="s">
+      <c r="A156" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="179"/>
-      <c r="C156" s="179"/>
-      <c r="D156" s="179"/>
+      <c r="B156" s="175"/>
+      <c r="C156" s="175"/>
+      <c r="D156" s="175"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="91" t="s">
@@ -7845,10 +7845,10 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="175" t="s">
+      <c r="A167" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="B167" s="175"/>
+      <c r="B167" s="176"/>
       <c r="C167" s="76"/>
       <c r="D167" s="76"/>
     </row>
@@ -7897,11 +7897,11 @@
       <c r="D172" s="76"/>
     </row>
     <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A173" s="180" t="s">
+      <c r="A173" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="B173" s="181"/>
-      <c r="C173" s="182"/>
+      <c r="B173" s="186"/>
+      <c r="C173" s="187"/>
       <c r="D173" s="76"/>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1">
@@ -7911,18 +7911,18 @@
       <c r="D174" s="90"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="186"/>
-      <c r="B175" s="186"/>
-      <c r="C175" s="186"/>
+      <c r="A175" s="174"/>
+      <c r="B175" s="174"/>
+      <c r="C175" s="174"/>
       <c r="D175" s="76"/>
     </row>
     <row r="176" spans="1:4" ht="18.75">
-      <c r="A176" s="179" t="s">
+      <c r="A176" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="179"/>
-      <c r="C176" s="179"/>
-      <c r="D176" s="179"/>
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="91" t="s">
@@ -7977,10 +7977,10 @@
       <c r="D180" s="94"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="175" t="s">
+      <c r="A183" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="B183" s="175"/>
+      <c r="B183" s="176"/>
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
     </row>
@@ -8061,20 +8061,20 @@
       <c r="D191" s="76"/>
     </row>
     <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A192" s="187" t="s">
+      <c r="A192" s="177" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="188"/>
-      <c r="C192" s="189"/>
+      <c r="B192" s="178"/>
+      <c r="C192" s="179"/>
       <c r="D192" s="76"/>
     </row>
     <row r="193" spans="1:4" ht="18.75">
-      <c r="A193" s="179" t="s">
+      <c r="A193" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="179"/>
-      <c r="C193" s="179"/>
-      <c r="D193" s="179"/>
+      <c r="B193" s="175"/>
+      <c r="C193" s="175"/>
+      <c r="D193" s="175"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="91" t="s">
@@ -8241,10 +8241,10 @@
       <c r="D206" s="76"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="175" t="s">
+      <c r="A207" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="175"/>
+      <c r="B207" s="176"/>
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
     </row>
@@ -8331,20 +8331,20 @@
       <c r="D216" s="90"/>
     </row>
     <row r="217" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A217" s="190" t="s">
+      <c r="A217" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="191"/>
-      <c r="C217" s="191"/>
+      <c r="B217" s="181"/>
+      <c r="C217" s="181"/>
       <c r="D217" s="76"/>
     </row>
     <row r="218" spans="1:4" ht="18.75">
-      <c r="A218" s="179" t="s">
+      <c r="A218" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="179"/>
-      <c r="C218" s="179"/>
-      <c r="D218" s="179"/>
+      <c r="B218" s="175"/>
+      <c r="C218" s="175"/>
+      <c r="D218" s="175"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="91" t="s">
@@ -8497,10 +8497,10 @@
       <c r="D231" s="76"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="175" t="s">
+      <c r="A232" s="176" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="175"/>
+      <c r="B232" s="176"/>
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
     </row>
@@ -8605,12 +8605,12 @@
       <c r="D242" s="76"/>
     </row>
     <row r="243" spans="1:4" ht="18.75">
-      <c r="A243" s="179" t="s">
+      <c r="A243" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="179"/>
-      <c r="C243" s="179"/>
-      <c r="D243" s="179"/>
+      <c r="B243" s="175"/>
+      <c r="C243" s="175"/>
+      <c r="D243" s="175"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="91" t="s">
@@ -8767,10 +8767,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.75">
-      <c r="A257" s="192" t="s">
+      <c r="A257" s="167" t="s">
         <v>356</v>
       </c>
-      <c r="B257" s="192"/>
+      <c r="B257" s="167"/>
       <c r="C257" s="103"/>
       <c r="D257" s="103"/>
     </row>
@@ -8832,11 +8832,11 @@
       <c r="D264" s="103"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="183" t="s">
+      <c r="A265" s="173" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="184"/>
-      <c r="C265" s="185"/>
+      <c r="B265" s="169"/>
+      <c r="C265" s="170"/>
       <c r="D265" s="103"/>
     </row>
     <row r="266" spans="1:4" ht="15.75">
@@ -8846,12 +8846,12 @@
       <c r="D266" s="103"/>
     </row>
     <row r="267" spans="1:4" ht="15.75">
-      <c r="A267" s="194" t="s">
+      <c r="A267" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="194"/>
-      <c r="C267" s="194"/>
-      <c r="D267" s="194"/>
+      <c r="B267" s="166"/>
+      <c r="C267" s="166"/>
+      <c r="D267" s="166"/>
     </row>
     <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="116" t="s">
@@ -8934,10 +8934,10 @@
       <c r="D273" s="119"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
-      <c r="A276" s="192" t="s">
+      <c r="A276" s="167" t="s">
         <v>360</v>
       </c>
-      <c r="B276" s="192"/>
+      <c r="B276" s="167"/>
       <c r="C276" s="103"/>
       <c r="D276" s="103"/>
     </row>
@@ -9050,11 +9050,11 @@
       <c r="D287" s="103"/>
     </row>
     <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A288" s="195" t="s">
+      <c r="A288" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="B288" s="184"/>
-      <c r="C288" s="185"/>
+      <c r="B288" s="169"/>
+      <c r="C288" s="170"/>
       <c r="D288" s="103"/>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
@@ -9064,12 +9064,12 @@
       <c r="D289" s="103"/>
     </row>
     <row r="290" spans="1:4" ht="15.75">
-      <c r="A290" s="194" t="s">
+      <c r="A290" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="194"/>
-      <c r="C290" s="194"/>
-      <c r="D290" s="194"/>
+      <c r="B290" s="166"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
     </row>
     <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="116" t="s">
@@ -9216,10 +9216,10 @@
       <c r="D301" s="124"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="196" t="s">
+      <c r="A303" s="157" t="s">
         <v>474</v>
       </c>
-      <c r="B303" s="196"/>
+      <c r="B303" s="157"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
@@ -9310,11 +9310,11 @@
       <c r="D312" s="1"/>
     </row>
     <row r="313" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A313" s="197" t="s">
+      <c r="A313" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="198"/>
-      <c r="C313" s="199"/>
+      <c r="B313" s="159"/>
+      <c r="C313" s="160"/>
       <c r="D313" s="1"/>
     </row>
     <row r="314" spans="1:4">
@@ -9450,10 +9450,10 @@
       <c r="D326" s="1"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="196" t="s">
+      <c r="A327" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="B327" s="196"/>
+      <c r="B327" s="157"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
@@ -9542,11 +9542,11 @@
       <c r="B337" s="12"/>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A338" s="200" t="s">
+      <c r="A338" s="172" t="s">
         <v>558</v>
       </c>
-      <c r="B338" s="198"/>
-      <c r="C338" s="199"/>
+      <c r="B338" s="159"/>
+      <c r="C338" s="160"/>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4">
@@ -9632,10 +9632,10 @@
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="201" t="s">
+      <c r="A348" s="161" t="s">
         <v>476</v>
       </c>
-      <c r="B348" s="201"/>
+      <c r="B348" s="161"/>
       <c r="C348"/>
     </row>
     <row r="349" spans="1:4">
@@ -9725,11 +9725,11 @@
       <c r="D357"/>
     </row>
     <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A358" s="193" t="s">
+      <c r="A358" s="162" t="s">
         <v>399</v>
       </c>
-      <c r="B358" s="159"/>
-      <c r="C358" s="160"/>
+      <c r="B358" s="163"/>
+      <c r="C358" s="164"/>
       <c r="D358"/>
     </row>
     <row r="359" spans="1:4">
@@ -9815,10 +9815,10 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="201" t="s">
+      <c r="A368" s="161" t="s">
         <v>477</v>
       </c>
-      <c r="B368" s="201"/>
+      <c r="B368" s="161"/>
       <c r="C368"/>
     </row>
     <row r="369" spans="1:4">
@@ -9913,11 +9913,11 @@
       <c r="D378"/>
     </row>
     <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A379" s="193" t="s">
+      <c r="A379" s="162" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="159"/>
-      <c r="C379" s="160"/>
+      <c r="B379" s="163"/>
+      <c r="C379" s="164"/>
       <c r="D379"/>
     </row>
     <row r="380" spans="1:4">
@@ -10015,10 +10015,10 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="196" t="s">
+      <c r="A390" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="B390" s="196"/>
+      <c r="B390" s="157"/>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="1:4">
@@ -10117,11 +10117,11 @@
       <c r="D400" s="1"/>
     </row>
     <row r="401" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A401" s="203" t="s">
+      <c r="A401" s="165" t="s">
         <v>438</v>
       </c>
-      <c r="B401" s="198"/>
-      <c r="C401" s="199"/>
+      <c r="B401" s="159"/>
+      <c r="C401" s="160"/>
       <c r="D401" s="1"/>
     </row>
     <row r="402" spans="1:4">
@@ -10189,10 +10189,10 @@
       <c r="D407" s="29"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="196" t="s">
+      <c r="A410" s="157" t="s">
         <v>479</v>
       </c>
-      <c r="B410" s="196"/>
+      <c r="B410" s="157"/>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="1:4">
@@ -10321,11 +10321,11 @@
       <c r="D422" s="1"/>
     </row>
     <row r="423" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A423" s="202" t="s">
+      <c r="A423" s="158" t="s">
         <v>456</v>
       </c>
-      <c r="B423" s="198"/>
-      <c r="C423" s="199"/>
+      <c r="B423" s="159"/>
+      <c r="C423" s="160"/>
       <c r="D423" s="1"/>
     </row>
     <row r="424" spans="1:4">
@@ -10432,22 +10432,29 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A265:C265"/>
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:D176"/>
@@ -10460,29 +10467,22 @@
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A401:C401"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
